--- a/data/pca/factorExposure/factorExposure_2010-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01525178836166113</v>
+        <v>0.01703255064485657</v>
       </c>
       <c r="C2">
-        <v>-0.004068786639851077</v>
+        <v>-0.0009595674229208355</v>
       </c>
       <c r="D2">
-        <v>0.01276166838399928</v>
+        <v>-0.007448204082190482</v>
       </c>
       <c r="E2">
-        <v>-0.01696850194983682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0001603630185496724</v>
+      </c>
+      <c r="F2">
+        <v>0.009106852795779677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1250373093866921</v>
+        <v>0.09370418266056048</v>
       </c>
       <c r="C4">
-        <v>-0.03411882978418673</v>
+        <v>-0.01583441153181713</v>
       </c>
       <c r="D4">
-        <v>0.05597043071743029</v>
+        <v>-0.08407605163866359</v>
       </c>
       <c r="E4">
-        <v>-0.006412460753247003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02997855377524768</v>
+      </c>
+      <c r="F4">
+        <v>-0.02922700583929748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1176205854015146</v>
+        <v>0.1553574168619316</v>
       </c>
       <c r="C6">
-        <v>0.01893717382681779</v>
+        <v>-0.02457521284740222</v>
       </c>
       <c r="D6">
-        <v>-0.0005978953690301546</v>
+        <v>0.02363283833625925</v>
       </c>
       <c r="E6">
-        <v>-0.01826796250758092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009963062533269843</v>
+      </c>
+      <c r="F6">
+        <v>-0.04831525626320286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07518533095541921</v>
+        <v>0.05963012664701237</v>
       </c>
       <c r="C7">
-        <v>-0.01333969722761221</v>
+        <v>0.0009994484935143808</v>
       </c>
       <c r="D7">
-        <v>0.07150379508182515</v>
+        <v>-0.05303763201964604</v>
       </c>
       <c r="E7">
-        <v>-0.05275545509310688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0134561843304179</v>
+      </c>
+      <c r="F7">
+        <v>-0.04456771954944353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05140303412237041</v>
+        <v>0.05798916726012265</v>
       </c>
       <c r="C8">
-        <v>-0.001747148340338593</v>
+        <v>0.01335355142068964</v>
       </c>
       <c r="D8">
-        <v>0.02382326869333357</v>
+        <v>-0.03194854255066976</v>
       </c>
       <c r="E8">
-        <v>-0.01951536981929908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01603539621661073</v>
+      </c>
+      <c r="F8">
+        <v>0.02871868805141262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09461421631069966</v>
+        <v>0.07133299726613516</v>
       </c>
       <c r="C9">
-        <v>-0.04361442230394439</v>
+        <v>-0.01183499407098504</v>
       </c>
       <c r="D9">
-        <v>0.03537495743860396</v>
+        <v>-0.08330253555952646</v>
       </c>
       <c r="E9">
-        <v>-0.01790964514323718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02369544717157276</v>
+      </c>
+      <c r="F9">
+        <v>-0.04868986989237021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08103612889526063</v>
+        <v>0.0953457922470192</v>
       </c>
       <c r="C10">
-        <v>0.1342932124409577</v>
+        <v>-0.01793400949529136</v>
       </c>
       <c r="D10">
-        <v>-0.1236437780437621</v>
+        <v>0.1685183693947313</v>
       </c>
       <c r="E10">
-        <v>-0.01012742167916726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03834247383625111</v>
+      </c>
+      <c r="F10">
+        <v>0.05602601521232047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08473392104174375</v>
+        <v>0.08721296634917525</v>
       </c>
       <c r="C11">
-        <v>-0.01846996296782684</v>
+        <v>-0.0115769842086169</v>
       </c>
       <c r="D11">
-        <v>0.05373718314296781</v>
+        <v>-0.1158215035702867</v>
       </c>
       <c r="E11">
-        <v>-0.04080702571392431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04762055619273044</v>
+      </c>
+      <c r="F11">
+        <v>-0.02001628483435282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09072870708800673</v>
+        <v>0.09161284776363192</v>
       </c>
       <c r="C12">
-        <v>-0.02909290458781364</v>
+        <v>-0.009109623826485282</v>
       </c>
       <c r="D12">
-        <v>0.07410300254026228</v>
+        <v>-0.1263731190656155</v>
       </c>
       <c r="E12">
-        <v>-0.0447962644380728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04768445178330463</v>
+      </c>
+      <c r="F12">
+        <v>-0.01890753220904034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04322300687734203</v>
+        <v>0.04358200793287927</v>
       </c>
       <c r="C13">
-        <v>-0.03615335546381947</v>
+        <v>-0.004071610876061367</v>
       </c>
       <c r="D13">
-        <v>-0.002329356637666336</v>
+        <v>-0.04805126803487283</v>
       </c>
       <c r="E13">
-        <v>-0.004495869791304846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01278200603531376</v>
+      </c>
+      <c r="F13">
+        <v>-0.008661593130062031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02849936478410539</v>
+        <v>0.02253442698561378</v>
       </c>
       <c r="C14">
-        <v>1.887609028784838e-05</v>
+        <v>-0.01414509976491648</v>
       </c>
       <c r="D14">
-        <v>0.008757362560041813</v>
+        <v>-0.03208376907065798</v>
       </c>
       <c r="E14">
-        <v>-0.005737226780924025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01762785644802558</v>
+      </c>
+      <c r="F14">
+        <v>-0.01722083249446469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02536993699792635</v>
+        <v>0.03116802049994071</v>
       </c>
       <c r="C15">
-        <v>-0.02015478082744972</v>
+        <v>-0.005324069328085271</v>
       </c>
       <c r="D15">
-        <v>0.002194610364228061</v>
+        <v>-0.04516818925002154</v>
       </c>
       <c r="E15">
-        <v>-0.0200101170748826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007774551136922272</v>
+      </c>
+      <c r="F15">
+        <v>-0.02849128669058828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09137740042150821</v>
+        <v>0.07269214185674534</v>
       </c>
       <c r="C16">
-        <v>-0.01402426596172172</v>
+        <v>-0.003099918279832497</v>
       </c>
       <c r="D16">
-        <v>0.06892569805608099</v>
+        <v>-0.1219515234122363</v>
       </c>
       <c r="E16">
-        <v>-0.05039869232896112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06276306965991722</v>
+      </c>
+      <c r="F16">
+        <v>-0.02477245900619347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02528855872208638</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003873565198399239</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02013230529362611</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.005818701142496803</v>
+      </c>
+      <c r="F18">
+        <v>0.0174821379134677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05041501565225126</v>
+        <v>0.06019288429616277</v>
       </c>
       <c r="C20">
-        <v>0.001534269925086361</v>
+        <v>-0.0004521408945009397</v>
       </c>
       <c r="D20">
-        <v>0.04542469198080396</v>
+        <v>-0.07646204191813651</v>
       </c>
       <c r="E20">
-        <v>0.0008260202370129988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05589776794585647</v>
+      </c>
+      <c r="F20">
+        <v>-0.02375112172632238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02185244945881761</v>
+        <v>0.03872581042187163</v>
       </c>
       <c r="C21">
-        <v>0.005785806530885438</v>
+        <v>-0.006718879508492265</v>
       </c>
       <c r="D21">
-        <v>0.002980657923374508</v>
+        <v>-0.03589929442644408</v>
       </c>
       <c r="E21">
-        <v>0.02975454154929817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.007786485204947965</v>
+      </c>
+      <c r="F21">
+        <v>0.02072337835112156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02958699167371752</v>
+        <v>0.04348970869215802</v>
       </c>
       <c r="C22">
-        <v>0.013286221589556</v>
+        <v>-0.0012446599650044</v>
       </c>
       <c r="D22">
-        <v>-0.02190685516939815</v>
+        <v>-0.002476923311068109</v>
       </c>
       <c r="E22">
-        <v>-0.06982790100030729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02897315068472925</v>
+      </c>
+      <c r="F22">
+        <v>0.008996640669909215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02967606243020163</v>
+        <v>0.04352313595263309</v>
       </c>
       <c r="C23">
-        <v>0.01338224652410121</v>
+        <v>-0.00126561392584014</v>
       </c>
       <c r="D23">
-        <v>-0.02148070353031299</v>
+        <v>-0.002568797922831545</v>
       </c>
       <c r="E23">
-        <v>-0.07184963138384892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02928170079434748</v>
+      </c>
+      <c r="F23">
+        <v>0.00845181889097139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09608987609717648</v>
+        <v>0.07905877938754922</v>
       </c>
       <c r="C24">
-        <v>-0.01924413059771547</v>
+        <v>-0.003152248842111639</v>
       </c>
       <c r="D24">
-        <v>0.07299143599321603</v>
+        <v>-0.1195082032488837</v>
       </c>
       <c r="E24">
-        <v>-0.03974646765666866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05074967128184515</v>
+      </c>
+      <c r="F24">
+        <v>-0.02252507598316938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09721413139745351</v>
+        <v>0.08451937312907259</v>
       </c>
       <c r="C25">
-        <v>-0.01017829189168154</v>
+        <v>-0.005364023184671767</v>
       </c>
       <c r="D25">
-        <v>0.05591645601915535</v>
+        <v>-0.108699270639869</v>
       </c>
       <c r="E25">
-        <v>-0.04637322116699605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03358362860053905</v>
+      </c>
+      <c r="F25">
+        <v>-0.02651062155598084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03826937250794203</v>
+        <v>0.05566181021958196</v>
       </c>
       <c r="C26">
-        <v>0.0290674999409932</v>
+        <v>-0.01453066564586065</v>
       </c>
       <c r="D26">
-        <v>-0.002029615754907266</v>
+        <v>-0.04058968756890789</v>
       </c>
       <c r="E26">
-        <v>-0.004872927157331518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02552036288463091</v>
+      </c>
+      <c r="F26">
+        <v>0.009760195405728735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08232648204932794</v>
+        <v>0.1436327900277655</v>
       </c>
       <c r="C28">
-        <v>0.1750336648082444</v>
+        <v>-0.01668066778317394</v>
       </c>
       <c r="D28">
-        <v>-0.2656316438036239</v>
+        <v>0.2637859868578238</v>
       </c>
       <c r="E28">
-        <v>-0.02351202678728969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06934957402279011</v>
+      </c>
+      <c r="F28">
+        <v>-0.01899652362578613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02781054049800688</v>
+        <v>0.02713075873507715</v>
       </c>
       <c r="C29">
-        <v>-0.01076886283520658</v>
+        <v>-0.008366757860452175</v>
       </c>
       <c r="D29">
-        <v>0.000650284055230946</v>
+        <v>-0.03145936277871779</v>
       </c>
       <c r="E29">
-        <v>-0.008590188421909816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01157243862714572</v>
+      </c>
+      <c r="F29">
+        <v>0.01270549152515109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1172337267339991</v>
+        <v>0.06187367669732734</v>
       </c>
       <c r="C30">
-        <v>-0.06115050223412363</v>
+        <v>-0.004511209998370377</v>
       </c>
       <c r="D30">
-        <v>0.06367002733864403</v>
+        <v>-0.08758514371960373</v>
       </c>
       <c r="E30">
-        <v>-0.03660009829049335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02413559991797893</v>
+      </c>
+      <c r="F30">
+        <v>-0.09327465957755908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02914858892875611</v>
+        <v>0.04865242163974706</v>
       </c>
       <c r="C31">
-        <v>-0.00405545771713386</v>
+        <v>-0.01502856635086301</v>
       </c>
       <c r="D31">
-        <v>0.032326560019246</v>
+        <v>-0.02630174931053612</v>
       </c>
       <c r="E31">
-        <v>-0.02046196076855584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0273558740054844</v>
+      </c>
+      <c r="F31">
+        <v>0.005523371180639176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06178680748574704</v>
+        <v>0.04855966847359053</v>
       </c>
       <c r="C32">
-        <v>0.009338193432599085</v>
+        <v>0.0006215687692217654</v>
       </c>
       <c r="D32">
-        <v>0.03009607170469692</v>
+        <v>-0.0322963289493917</v>
       </c>
       <c r="E32">
-        <v>-0.005421482533328267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02980515050588405</v>
+      </c>
+      <c r="F32">
+        <v>-0.006561853453596244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1032740488402518</v>
+        <v>0.08926359935646291</v>
       </c>
       <c r="C33">
-        <v>-0.0440512463732939</v>
+        <v>-0.00857397480018504</v>
       </c>
       <c r="D33">
-        <v>0.05091444359330267</v>
+        <v>-0.09822000720899182</v>
       </c>
       <c r="E33">
-        <v>-0.0870569857663713</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04633788240760085</v>
+      </c>
+      <c r="F33">
+        <v>-0.03867983251153141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08653073412942706</v>
+        <v>0.06737787967766842</v>
       </c>
       <c r="C34">
-        <v>-0.01261887979777493</v>
+        <v>-0.0119516307069667</v>
       </c>
       <c r="D34">
-        <v>0.06335953508832615</v>
+        <v>-0.1023616604311451</v>
       </c>
       <c r="E34">
-        <v>-0.04420585863267829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03477013991023221</v>
+      </c>
+      <c r="F34">
+        <v>-0.03552919118674683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01384988189582354</v>
+        <v>0.02490015262783064</v>
       </c>
       <c r="C35">
-        <v>-0.01392122171475786</v>
+        <v>-0.002347141679521199</v>
       </c>
       <c r="D35">
-        <v>0.002342473104134464</v>
+        <v>-0.01208683269675583</v>
       </c>
       <c r="E35">
-        <v>-0.006357146975058909</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01065278465776683</v>
+      </c>
+      <c r="F35">
+        <v>-0.006467391097136007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02467198433346568</v>
+        <v>0.0250385392342858</v>
       </c>
       <c r="C36">
-        <v>-0.009360188281049947</v>
+        <v>-0.007532082411352652</v>
       </c>
       <c r="D36">
-        <v>-0.0001619326030379529</v>
+        <v>-0.03750326166229461</v>
       </c>
       <c r="E36">
-        <v>-0.001334153925165512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01648511813505145</v>
+      </c>
+      <c r="F36">
+        <v>-0.01311714373793746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006719867214709086</v>
+        <v>0.001496554563907422</v>
       </c>
       <c r="C38">
-        <v>-0.002232837215146674</v>
+        <v>-0.0002283531667116373</v>
       </c>
       <c r="D38">
-        <v>0.004050699622464821</v>
+        <v>-0.00087468688370137</v>
       </c>
       <c r="E38">
-        <v>-0.003237828374363657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001241502095979113</v>
+      </c>
+      <c r="F38">
+        <v>0.0009643493098953278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1469870110418099</v>
+        <v>0.1068991397810629</v>
       </c>
       <c r="C39">
-        <v>-0.05137142826372115</v>
+        <v>-0.01676988969074761</v>
       </c>
       <c r="D39">
-        <v>0.1036036167030333</v>
+        <v>-0.1546354230512882</v>
       </c>
       <c r="E39">
-        <v>-0.07654579731770761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06156289672680377</v>
+      </c>
+      <c r="F39">
+        <v>-0.02410994706787941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.007630496055038809</v>
+        <v>0.03738546273717687</v>
       </c>
       <c r="C40">
-        <v>-0.004272332237814784</v>
+        <v>-0.007205538617997818</v>
       </c>
       <c r="D40">
-        <v>0.01604347555045721</v>
+        <v>-0.03387556104109278</v>
       </c>
       <c r="E40">
-        <v>0.01433398955423649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.002950007653771419</v>
+      </c>
+      <c r="F40">
+        <v>0.01522996397505858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.019520378200128</v>
+        <v>0.02648062939942909</v>
       </c>
       <c r="C41">
-        <v>0.02848070011343048</v>
+        <v>-0.006523563616904343</v>
       </c>
       <c r="D41">
-        <v>0.007288625812916479</v>
+        <v>-0.01135753239986267</v>
       </c>
       <c r="E41">
-        <v>-0.008943318396754909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01249181376623516</v>
+      </c>
+      <c r="F41">
+        <v>0.008713720004508277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02864776078261004</v>
+        <v>0.04028359314949502</v>
       </c>
       <c r="C43">
-        <v>0.02656966470911219</v>
+        <v>-0.006657531514497924</v>
       </c>
       <c r="D43">
-        <v>0.02186996002637841</v>
+        <v>-0.02042111083189965</v>
       </c>
       <c r="E43">
-        <v>-0.03550755292364612</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02423872348435625</v>
+      </c>
+      <c r="F43">
+        <v>0.01310748702704861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1372809978373131</v>
+        <v>0.07583503827349912</v>
       </c>
       <c r="C44">
-        <v>-0.0657016939689658</v>
+        <v>-0.02140360787918191</v>
       </c>
       <c r="D44">
-        <v>0.07883309310163378</v>
+        <v>-0.09655505903478018</v>
       </c>
       <c r="E44">
-        <v>-0.04683639106904992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07291966800530902</v>
+      </c>
+      <c r="F44">
+        <v>-0.1708581135529955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01466508922886969</v>
+        <v>0.02299977981581499</v>
       </c>
       <c r="C46">
-        <v>0.02291404009981109</v>
+        <v>-0.003562622562432078</v>
       </c>
       <c r="D46">
-        <v>-0.003570295214730772</v>
+        <v>-0.01238805603635743</v>
       </c>
       <c r="E46">
-        <v>-0.03682446726635271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02247958696859009</v>
+      </c>
+      <c r="F46">
+        <v>1.527587501428416e-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03929072978273761</v>
+        <v>0.05137366327708732</v>
       </c>
       <c r="C47">
-        <v>0.01098627602601467</v>
+        <v>-0.003209437206104295</v>
       </c>
       <c r="D47">
-        <v>0.007365703590546093</v>
+        <v>-0.01347591295104971</v>
       </c>
       <c r="E47">
-        <v>-0.006339223273445705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02294103029029155</v>
+      </c>
+      <c r="F47">
+        <v>0.03957534345559918</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03892573643921343</v>
+        <v>0.04778964449839123</v>
       </c>
       <c r="C48">
-        <v>-0.01089960977419087</v>
+        <v>-0.002683835741849353</v>
       </c>
       <c r="D48">
-        <v>-0.002916931566436696</v>
+        <v>-0.05155157105145794</v>
       </c>
       <c r="E48">
-        <v>-0.01055389632282464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.005061345615470329</v>
+      </c>
+      <c r="F48">
+        <v>-0.00636100698963813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2210167288364032</v>
+        <v>0.20274030846188</v>
       </c>
       <c r="C49">
-        <v>0.06273990645712403</v>
+        <v>-0.0175375678506139</v>
       </c>
       <c r="D49">
-        <v>0.03085928812299074</v>
+        <v>0.009832054009259331</v>
       </c>
       <c r="E49">
-        <v>0.02223956533530725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03300606965168528</v>
+      </c>
+      <c r="F49">
+        <v>-0.02998409811537874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03920076744017131</v>
+        <v>0.04845243637795422</v>
       </c>
       <c r="C50">
-        <v>0.003179781708603099</v>
+        <v>-0.01106458574288299</v>
       </c>
       <c r="D50">
-        <v>0.038542688315978</v>
+        <v>-0.02598223539196379</v>
       </c>
       <c r="E50">
-        <v>-0.01591953818051188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02929922325129719</v>
+      </c>
+      <c r="F50">
+        <v>-0.006710903961789814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009148458926606552</v>
+        <v>0.002112473047055776</v>
       </c>
       <c r="C51">
-        <v>0.009109624079520812</v>
+        <v>-0.0005332943656272433</v>
       </c>
       <c r="D51">
-        <v>-0.01233298403140576</v>
+        <v>0.002131629084063552</v>
       </c>
       <c r="E51">
-        <v>-0.01527803343724059</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1.370314308483343e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004108375787444529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1312357468281807</v>
+        <v>0.1450020116957607</v>
       </c>
       <c r="C52">
-        <v>-0.07204028055343267</v>
+        <v>-0.01389273353428899</v>
       </c>
       <c r="D52">
-        <v>0.06276738275801241</v>
+        <v>-0.04935450090055883</v>
       </c>
       <c r="E52">
-        <v>0.002264167940011003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02409123947672657</v>
+      </c>
+      <c r="F52">
+        <v>-0.03857118430495501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1543750706695743</v>
+        <v>0.1737490220119</v>
       </c>
       <c r="C53">
-        <v>-0.012609752395632</v>
+        <v>-0.01678261758759291</v>
       </c>
       <c r="D53">
-        <v>0.01417628352897687</v>
+        <v>-0.00844921582143624</v>
       </c>
       <c r="E53">
-        <v>0.01280077983771011</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03474349247145187</v>
+      </c>
+      <c r="F53">
+        <v>-0.06928699154524032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04791150872848528</v>
+        <v>0.02197674880482827</v>
       </c>
       <c r="C54">
-        <v>-0.001915315666108294</v>
+        <v>-0.01226486487653053</v>
       </c>
       <c r="D54">
-        <v>0.01914234704314091</v>
+        <v>-0.03396926379324698</v>
       </c>
       <c r="E54">
-        <v>-0.01588660912046621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01495301302899608</v>
+      </c>
+      <c r="F54">
+        <v>0.002546873222689242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08664507899235105</v>
+        <v>0.1142238478478117</v>
       </c>
       <c r="C55">
-        <v>-0.03012442013036103</v>
+        <v>-0.01547055070925785</v>
       </c>
       <c r="D55">
-        <v>0.005923854427667976</v>
+        <v>-0.009448260620172283</v>
       </c>
       <c r="E55">
-        <v>-0.03931900165945613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03066320089276946</v>
+      </c>
+      <c r="F55">
+        <v>-0.04495583018661862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1589504951081417</v>
+        <v>0.1774630230416682</v>
       </c>
       <c r="C56">
-        <v>-0.01491562995351755</v>
+        <v>-0.01426950492179366</v>
       </c>
       <c r="D56">
-        <v>0.04548427923653433</v>
+        <v>-0.005673467393308011</v>
       </c>
       <c r="E56">
-        <v>-0.02186946750881527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0406056895120665</v>
+      </c>
+      <c r="F56">
+        <v>-0.04767900858437145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04197527414181872</v>
+        <v>0.04571999060434639</v>
       </c>
       <c r="C58">
-        <v>0.01256860145032225</v>
+        <v>-0.001371114859582436</v>
       </c>
       <c r="D58">
-        <v>0.005363725445478631</v>
+        <v>-0.06762211572062984</v>
       </c>
       <c r="E58">
-        <v>0.01001704881038027</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02526447835470018</v>
+      </c>
+      <c r="F58">
+        <v>0.04033663868541374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1496516117933676</v>
+        <v>0.1720881220185561</v>
       </c>
       <c r="C59">
-        <v>0.1672107121542941</v>
+        <v>-0.01733762308909432</v>
       </c>
       <c r="D59">
-        <v>-0.2265827044745662</v>
+        <v>0.2225157125784396</v>
       </c>
       <c r="E59">
-        <v>-0.03446666313279895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04783919928855028</v>
+      </c>
+      <c r="F59">
+        <v>0.03078370914543891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2771008438724045</v>
+        <v>0.2352695552811139</v>
       </c>
       <c r="C60">
-        <v>-0.05135129664482177</v>
+        <v>0.004291164926485349</v>
       </c>
       <c r="D60">
-        <v>0.09060501225222864</v>
+        <v>-0.04466196972236927</v>
       </c>
       <c r="E60">
-        <v>0.08665741937078573</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01175021488204755</v>
+      </c>
+      <c r="F60">
+        <v>0.02286757180831365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1155210788592008</v>
+        <v>0.08287066790156522</v>
       </c>
       <c r="C61">
-        <v>-0.04441982045386426</v>
+        <v>-0.0128520711170341</v>
       </c>
       <c r="D61">
-        <v>0.05221481794227971</v>
+        <v>-0.1158068914670705</v>
       </c>
       <c r="E61">
-        <v>-0.05798724738334726</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04127071056710304</v>
+      </c>
+      <c r="F61">
+        <v>-0.01250327353689129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1628495166647962</v>
+        <v>0.1697916823435317</v>
       </c>
       <c r="C62">
-        <v>-0.01163395079031245</v>
+        <v>-0.01784042655902539</v>
       </c>
       <c r="D62">
-        <v>0.02729341743953303</v>
+        <v>-0.009762816946455454</v>
       </c>
       <c r="E62">
-        <v>-0.006943211568241599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03663642507362704</v>
+      </c>
+      <c r="F62">
+        <v>-0.02920667827037999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04252934236643333</v>
+        <v>0.04271551156289016</v>
       </c>
       <c r="C63">
-        <v>-0.006764578441433956</v>
+        <v>-0.002715234247343018</v>
       </c>
       <c r="D63">
-        <v>-0.004785356681306412</v>
+        <v>-0.05582241922584982</v>
       </c>
       <c r="E63">
-        <v>-0.02490486214836988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0205361283072565</v>
+      </c>
+      <c r="F63">
+        <v>-0.00687211389485068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09226277219049042</v>
+        <v>0.1111290534360639</v>
       </c>
       <c r="C64">
-        <v>0.004175238065839424</v>
+        <v>-0.01114069393206135</v>
       </c>
       <c r="D64">
-        <v>0.01688466968222051</v>
+        <v>-0.04222127221010386</v>
       </c>
       <c r="E64">
-        <v>-0.001669212419663452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02096169967259804</v>
+      </c>
+      <c r="F64">
+        <v>-0.02870853709690252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1173962689364348</v>
+        <v>0.1467021826190475</v>
       </c>
       <c r="C65">
-        <v>-0.009340071172749183</v>
+        <v>-0.03117833811719613</v>
       </c>
       <c r="D65">
-        <v>-0.01741653897741407</v>
+        <v>0.04267613326513234</v>
       </c>
       <c r="E65">
-        <v>0.006308179229757933</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0004722708079873359</v>
+      </c>
+      <c r="F65">
+        <v>-0.04262568881809973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1677998806213055</v>
+        <v>0.1275903781034774</v>
       </c>
       <c r="C66">
-        <v>-0.04823249437633691</v>
+        <v>-0.01455752127984939</v>
       </c>
       <c r="D66">
-        <v>0.1169420545107836</v>
+        <v>-0.1439338673273935</v>
       </c>
       <c r="E66">
-        <v>-0.08199418308159297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06883405636122736</v>
+      </c>
+      <c r="F66">
+        <v>-0.02907173171917204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07172674602538937</v>
+        <v>0.06317261194378816</v>
       </c>
       <c r="C67">
-        <v>-0.03690406206474379</v>
+        <v>-0.002966994954816613</v>
       </c>
       <c r="D67">
-        <v>0.0156625696041514</v>
+        <v>-0.05630293428137126</v>
       </c>
       <c r="E67">
-        <v>-0.07615686811897797</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01863256251410051</v>
+      </c>
+      <c r="F67">
+        <v>0.03883008933272804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07547169585505265</v>
+        <v>0.1177255233135405</v>
       </c>
       <c r="C68">
-        <v>0.1543803612867978</v>
+        <v>-0.02711240538105111</v>
       </c>
       <c r="D68">
-        <v>-0.2330121476647802</v>
+        <v>0.2606971902177078</v>
       </c>
       <c r="E68">
-        <v>-0.01449340085982708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08638780724707698</v>
+      </c>
+      <c r="F68">
+        <v>-0.01918809326545339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03467189181450896</v>
+        <v>0.03909923984988972</v>
       </c>
       <c r="C69">
-        <v>-0.009054052727075964</v>
+        <v>-0.0008730861053773647</v>
       </c>
       <c r="D69">
-        <v>-0.01041927452593406</v>
+        <v>-0.008717911210599239</v>
       </c>
       <c r="E69">
-        <v>-0.03008323886383895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02408782738263613</v>
+      </c>
+      <c r="F69">
+        <v>0.005371498729051331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0267131734840845</v>
+        <v>0.06218458609028263</v>
       </c>
       <c r="C70">
-        <v>-0.007577778327465521</v>
+        <v>0.02863085720254842</v>
       </c>
       <c r="D70">
-        <v>-0.03001164995082701</v>
+        <v>-0.03016269082926744</v>
       </c>
       <c r="E70">
-        <v>-0.03657832914130796</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04746645489307459</v>
+      </c>
+      <c r="F70">
+        <v>0.2332466642862737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08864269269144244</v>
+        <v>0.1368346563971454</v>
       </c>
       <c r="C71">
-        <v>0.1640957801591113</v>
+        <v>-0.03158324508451454</v>
       </c>
       <c r="D71">
-        <v>-0.2510553695765917</v>
+        <v>0.2743689834365578</v>
       </c>
       <c r="E71">
-        <v>-0.0252634382727799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09619592175458275</v>
+      </c>
+      <c r="F71">
+        <v>-0.02350834678838309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1371898366572425</v>
+        <v>0.1411260684431868</v>
       </c>
       <c r="C72">
-        <v>0.02973475715541646</v>
+        <v>-0.02484560001368884</v>
       </c>
       <c r="D72">
-        <v>0.0003032859603929473</v>
+        <v>-0.002634751424262618</v>
       </c>
       <c r="E72">
-        <v>-0.01807571766300341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04342964929634818</v>
+      </c>
+      <c r="F72">
+        <v>-0.03036668719330677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2312619898318719</v>
+        <v>0.2023115995404067</v>
       </c>
       <c r="C73">
-        <v>0.01773129130663292</v>
+        <v>-0.01173820558193035</v>
       </c>
       <c r="D73">
-        <v>0.03322565800670285</v>
+        <v>-0.01615408627918509</v>
       </c>
       <c r="E73">
-        <v>-0.05420242593652378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06639117215273131</v>
+      </c>
+      <c r="F73">
+        <v>-0.02601320991295185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1102143117127036</v>
+        <v>0.09453757487065918</v>
       </c>
       <c r="C74">
-        <v>0.006340991412773748</v>
+        <v>-0.01218794625803486</v>
       </c>
       <c r="D74">
-        <v>0.03901592953708076</v>
+        <v>-0.01996901969311835</v>
       </c>
       <c r="E74">
-        <v>-0.02721314625431307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04853326371912546</v>
+      </c>
+      <c r="F74">
+        <v>-0.05096719971738667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1257401031765515</v>
+        <v>0.129132259907824</v>
       </c>
       <c r="C75">
-        <v>-0.009769060261427195</v>
+        <v>-0.02656635865912424</v>
       </c>
       <c r="D75">
-        <v>0.05237166806648749</v>
+        <v>-0.03340495999995685</v>
       </c>
       <c r="E75">
-        <v>-0.01994618484834477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06100445331264805</v>
+      </c>
+      <c r="F75">
+        <v>-0.01517047664870829</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01464247476744989</v>
+        <v>0.003103964463607489</v>
       </c>
       <c r="C76">
-        <v>0.00964621872234744</v>
+        <v>-0.0007605896635813565</v>
       </c>
       <c r="D76">
-        <v>-0.01200155617479502</v>
+        <v>0.002219530730213008</v>
       </c>
       <c r="E76">
-        <v>-0.01149503570981121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004149889618362008</v>
+      </c>
+      <c r="F76">
+        <v>-0.004003435074126189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08203720222165198</v>
+        <v>0.07869375985553059</v>
       </c>
       <c r="C77">
-        <v>-0.06109902699197108</v>
+        <v>-0.008762421383819184</v>
       </c>
       <c r="D77">
-        <v>0.1001562523688026</v>
+        <v>-0.1181369047879052</v>
       </c>
       <c r="E77">
-        <v>0.0105077178002355</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03928021582085374</v>
+      </c>
+      <c r="F77">
+        <v>-0.02865627136462797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09713225323178942</v>
+        <v>0.1031224054912566</v>
       </c>
       <c r="C78">
-        <v>0.09654775228056699</v>
+        <v>-0.03990750758004868</v>
       </c>
       <c r="D78">
-        <v>0.0885259685936296</v>
+        <v>-0.1186946285194162</v>
       </c>
       <c r="E78">
-        <v>-0.1766549970511326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08080895274506421</v>
+      </c>
+      <c r="F78">
+        <v>-0.06060909128674561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1404536577534326</v>
+        <v>0.164057489423318</v>
       </c>
       <c r="C79">
-        <v>0.009278836242994805</v>
+        <v>-0.02055644759603474</v>
       </c>
       <c r="D79">
-        <v>0.06937617936215877</v>
+        <v>-0.01875151002565902</v>
       </c>
       <c r="E79">
-        <v>-5.003574828802047e-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04987706879047511</v>
+      </c>
+      <c r="F79">
+        <v>-0.006334737667956705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08433155591914161</v>
+        <v>0.08143871820761356</v>
       </c>
       <c r="C80">
-        <v>-0.05538221606724224</v>
+        <v>0.0007053601513625145</v>
       </c>
       <c r="D80">
-        <v>0.0518994667284976</v>
+        <v>-0.05749780791349918</v>
       </c>
       <c r="E80">
-        <v>-0.06118483034375507</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0360536727099888</v>
+      </c>
+      <c r="F80">
+        <v>0.02595701275312115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1474590223072284</v>
+        <v>0.1231699145367303</v>
       </c>
       <c r="C81">
-        <v>-0.007683758761723677</v>
+        <v>-0.03035557656783786</v>
       </c>
       <c r="D81">
-        <v>0.0749140700789777</v>
+        <v>-0.01730827803762916</v>
       </c>
       <c r="E81">
-        <v>-0.03546786349673975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06025415459819814</v>
+      </c>
+      <c r="F81">
+        <v>-0.01069828140512355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1714572104664741</v>
+        <v>0.1642598241716454</v>
       </c>
       <c r="C82">
-        <v>-0.034894742820113</v>
+        <v>-0.02251587414071913</v>
       </c>
       <c r="D82">
-        <v>0.05325972504756995</v>
+        <v>-0.009952977547507978</v>
       </c>
       <c r="E82">
-        <v>-0.02893540609307756</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0335503158786398</v>
+      </c>
+      <c r="F82">
+        <v>-0.07198282610549003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08021509217001642</v>
+        <v>0.06201108037936414</v>
       </c>
       <c r="C83">
-        <v>-0.03110365395801854</v>
+        <v>-0.003163614970295438</v>
       </c>
       <c r="D83">
-        <v>0.03061051737862952</v>
+        <v>-0.05034139657214337</v>
       </c>
       <c r="E83">
-        <v>0.04027226902760853</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.006119072935028625</v>
+      </c>
+      <c r="F83">
+        <v>0.03949279265464774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06941313023922709</v>
+        <v>0.05873264532472394</v>
       </c>
       <c r="C84">
-        <v>-0.01596736391451748</v>
+        <v>-0.01077036080178866</v>
       </c>
       <c r="D84">
-        <v>0.002023861369809052</v>
+        <v>-0.06682382695019015</v>
       </c>
       <c r="E84">
-        <v>0.009818191819389938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.004992246490286535</v>
+      </c>
+      <c r="F84">
+        <v>-0.006579475117936944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1288651469432272</v>
+        <v>0.138679602885116</v>
       </c>
       <c r="C85">
-        <v>-0.0006225848183066746</v>
+        <v>-0.02629223168719233</v>
       </c>
       <c r="D85">
-        <v>0.03622116770576148</v>
+        <v>-0.01355659742997291</v>
       </c>
       <c r="E85">
-        <v>-0.01312616789856817</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04101615423171905</v>
+      </c>
+      <c r="F85">
+        <v>-0.04599461401757796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1279728679622386</v>
+        <v>0.09579309605733129</v>
       </c>
       <c r="C86">
-        <v>0.2461090540231481</v>
+        <v>0.005521817494155101</v>
       </c>
       <c r="D86">
-        <v>0.2007109784678406</v>
+        <v>-0.03583680179033608</v>
       </c>
       <c r="E86">
-        <v>0.8863830004823794</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1685165959595798</v>
+      </c>
+      <c r="F86">
+        <v>0.8986848255061083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1113832435485573</v>
+        <v>0.09598162737630452</v>
       </c>
       <c r="C87">
-        <v>-0.1040041528101939</v>
+        <v>-0.02208086306139108</v>
       </c>
       <c r="D87">
-        <v>0.02593717738952484</v>
+        <v>-0.09350010191124646</v>
       </c>
       <c r="E87">
-        <v>-0.004485816430437581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05433478179192928</v>
+      </c>
+      <c r="F87">
+        <v>-0.06766227981288556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04904193521479626</v>
+        <v>0.06100936741896404</v>
       </c>
       <c r="C88">
-        <v>0.001951498931173594</v>
+        <v>-0.002442550464973429</v>
       </c>
       <c r="D88">
-        <v>0.03230522655611168</v>
+        <v>-0.05218012634264004</v>
       </c>
       <c r="E88">
-        <v>-0.04052521065357365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02684288216040564</v>
+      </c>
+      <c r="F88">
+        <v>-0.01055579712663215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1349537907132898</v>
+        <v>0.1357789717040266</v>
       </c>
       <c r="C89">
-        <v>0.2119104229610172</v>
+        <v>-0.009459848525761313</v>
       </c>
       <c r="D89">
-        <v>-0.3063356657024923</v>
+        <v>0.2524008389547506</v>
       </c>
       <c r="E89">
-        <v>-0.008424767582289326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08995114373060889</v>
+      </c>
+      <c r="F89">
+        <v>-0.006322457605490741</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1017097498352857</v>
+        <v>0.1486524308605455</v>
       </c>
       <c r="C90">
-        <v>0.1669321681374664</v>
+        <v>-0.02723658680197955</v>
       </c>
       <c r="D90">
-        <v>-0.2440249376875158</v>
+        <v>0.2657108988870258</v>
       </c>
       <c r="E90">
-        <v>-0.01232522104394821</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1102731290304854</v>
+      </c>
+      <c r="F90">
+        <v>-0.008741181386929043</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08858003042801492</v>
+        <v>0.1197687313267676</v>
       </c>
       <c r="C91">
-        <v>0.001660287776594368</v>
+        <v>-0.01695730098625451</v>
       </c>
       <c r="D91">
-        <v>0.03279172577221159</v>
+        <v>0.009727273712389831</v>
       </c>
       <c r="E91">
-        <v>0.004943130879277446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05803499268279007</v>
+      </c>
+      <c r="F91">
+        <v>0.01163041048023366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.119081079854022</v>
+        <v>0.1502157311246343</v>
       </c>
       <c r="C92">
-        <v>0.17154088556534</v>
+        <v>-0.01879590755501038</v>
       </c>
       <c r="D92">
-        <v>-0.2830927010644858</v>
+        <v>0.2921664526248058</v>
       </c>
       <c r="E92">
-        <v>-0.00248252904657556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1046699169741828</v>
+      </c>
+      <c r="F92">
+        <v>-0.001550983291588963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1006558763401847</v>
+        <v>0.1520565401941893</v>
       </c>
       <c r="C93">
-        <v>0.1865205065806702</v>
+        <v>-0.02332216234120073</v>
       </c>
       <c r="D93">
-        <v>-0.2742115657870723</v>
+        <v>0.2651362682698842</v>
       </c>
       <c r="E93">
-        <v>0.001227385370126746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07740544134102449</v>
+      </c>
+      <c r="F93">
+        <v>-0.00922826734648124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1493339135808399</v>
+        <v>0.1322442413291162</v>
       </c>
       <c r="C94">
-        <v>-0.004890897619916115</v>
+        <v>-0.02372690237813083</v>
       </c>
       <c r="D94">
-        <v>0.04595108066875746</v>
+        <v>-0.04462650354322656</v>
       </c>
       <c r="E94">
-        <v>-0.07177597183040237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06123127657899239</v>
+      </c>
+      <c r="F94">
+        <v>-0.03415925181529759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1152828458808491</v>
+        <v>0.1257208403015999</v>
       </c>
       <c r="C95">
-        <v>-0.00560036147616732</v>
+        <v>-0.004835476821205817</v>
       </c>
       <c r="D95">
-        <v>0.04136158428868723</v>
+        <v>-0.09111382449029641</v>
       </c>
       <c r="E95">
-        <v>-0.04049859287874898</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04577921240151305</v>
+      </c>
+      <c r="F95">
+        <v>0.01056168999720679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01583646266102278</v>
+        <v>0.09907623422035426</v>
       </c>
       <c r="C96">
-        <v>-0.002532416905191703</v>
+        <v>0.9888294318476352</v>
       </c>
       <c r="D96">
-        <v>0.0003232831509693845</v>
+        <v>0.03416885769475788</v>
       </c>
       <c r="E96">
-        <v>-0.0007549274987242884</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05773166725515773</v>
+      </c>
+      <c r="F96">
+        <v>-0.042206201566061</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1709820966189077</v>
+        <v>0.1892423785304135</v>
       </c>
       <c r="C97">
-        <v>0.03946664554646793</v>
+        <v>0.009439187907203364</v>
       </c>
       <c r="D97">
-        <v>0.03021309710537672</v>
+        <v>0.0190644361852761</v>
       </c>
       <c r="E97">
-        <v>-0.04602347285986019</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009391632545356316</v>
+      </c>
+      <c r="F97">
+        <v>0.09925184871466183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2543141982573808</v>
+        <v>0.2057192648455939</v>
       </c>
       <c r="C98">
-        <v>-0.02229971492476137</v>
+        <v>-0.007181029081344745</v>
       </c>
       <c r="D98">
-        <v>-0.0299243275220432</v>
+        <v>-0.008997740713992022</v>
       </c>
       <c r="E98">
-        <v>0.09569550926460291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09533409991506758</v>
+      </c>
+      <c r="F98">
+        <v>0.1001182417072764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04892405108767817</v>
+        <v>0.05556756611639306</v>
       </c>
       <c r="C99">
-        <v>0.01858882061635455</v>
+        <v>0.004268902647221568</v>
       </c>
       <c r="D99">
-        <v>0.0004028620236957763</v>
+        <v>-0.03798688198644935</v>
       </c>
       <c r="E99">
-        <v>-0.05140429633875345</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02510558896759384</v>
+      </c>
+      <c r="F99">
+        <v>-0.003617414986550408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1302740850859635</v>
+        <v>0.1237497943415191</v>
       </c>
       <c r="C100">
-        <v>-0.773354727570092</v>
+        <v>0.05166567785214096</v>
       </c>
       <c r="D100">
-        <v>-0.4946244082849843</v>
+        <v>-0.3484985279528129</v>
       </c>
       <c r="E100">
-        <v>0.2596488198288828</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8920711607030088</v>
+      </c>
+      <c r="F100">
+        <v>0.09186011968250955</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02749186800013989</v>
+        <v>0.02705566135252095</v>
       </c>
       <c r="C101">
-        <v>-0.01131990694617743</v>
+        <v>-0.008370497838972146</v>
       </c>
       <c r="D101">
-        <v>0.0009324831168334919</v>
+        <v>-0.03116043437113104</v>
       </c>
       <c r="E101">
-        <v>-0.009184980205095648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01109602792055107</v>
+      </c>
+      <c r="F101">
+        <v>0.01412299101336904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
